--- a/ScheduleAPI/ProjectTasks.xlsx
+++ b/ScheduleAPI/ProjectTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0Data\Script\PowerShell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marwalke\GitHub\Dynamics-365-FastTrack-Implementation-Assets\ScheduleAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1D4F6-4B3D-46E6-BCE0-575D148CEEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C10A50-16BC-4ADF-8956-F16BD1AD90BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24398" yWindow="3967" windowWidth="24496" windowHeight="16396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30555" yWindow="4515" windowWidth="26760" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Nr</t>
   </si>
@@ -61,16 +61,31 @@
     <t>SA Solutions Architect</t>
   </si>
   <si>
-    <t>2021-06-14</t>
-  </si>
-  <si>
-    <t>2021-06-17</t>
-  </si>
-  <si>
-    <t>2021-06-16</t>
-  </si>
-  <si>
-    <t>2021-06-22</t>
+    <t>Sub task 3</t>
+  </si>
+  <si>
+    <t>Bob Kozak</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>2022-11-23 17:00</t>
+  </si>
+  <si>
+    <t>2022-11-25 17:00</t>
+  </si>
+  <si>
+    <t>2022-11-29 17:00</t>
+  </si>
+  <si>
+    <t>2022-11-25 01:00</t>
+  </si>
+  <si>
+    <t>2022-11-29 01:00</t>
+  </si>
+  <si>
+    <t>2022-12-02 01:00</t>
   </si>
 </sst>
 </file>
@@ -917,7 +932,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +941,7 @@
     <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
@@ -980,10 +995,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1003,10 +1018,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1016,8 +1031,30 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
@@ -1331,4 +1368,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>